--- a/financial_models/Opportunities/6601.HK_Stock_Valuation_v27Jan2022.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation_v27Jan2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentProject\financial_models\Model_templates\Listed_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentManagement\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA0BE79-E249-4576-AC6E-40BE656278EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1B08B1-71E2-4DDD-BD7F-166FCC81EC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -974,6 +974,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">⇒ </t>
     </r>
@@ -985,6 +986,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Default Terminal Value Yield</t>
     </r>
@@ -1015,6 +1017,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">⇒ </t>
     </r>
@@ -1026,6 +1029,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Likely stage in the company life cycle</t>
     </r>
@@ -1038,6 +1042,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">⇒ </t>
     </r>
@@ -1049,6 +1054,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Terminal Value Yield</t>
     </r>
@@ -1359,7 +1365,7 @@
     <numFmt numFmtId="181" formatCode="&quot;Current Price = &quot;0.00"/>
     <numFmt numFmtId="182" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1571,14 +1577,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="20">
@@ -3307,155 +3306,155 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3833,7 +3832,7 @@
   </sheetPr>
   <dimension ref="A1:M989"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3861,11 +3860,11 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="334" t="str">
+      <c r="C2" s="340" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>6601.HK : CHEERWIN GP</v>
       </c>
-      <c r="D2" s="335"/>
+      <c r="D2" s="341"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -3878,27 +3877,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="342" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="343"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="347" t="s">
+      <c r="I3" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="354"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="344" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="345"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>7</v>
@@ -3914,10 +3913,10 @@
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="346">
         <v>44931</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="345"/>
       <c r="E5" s="241" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -3925,29 +3924,29 @@
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="323">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="350"/>
+      <c r="J5" s="324"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="341">
+      <c r="C6" s="349">
         <v>45001</v>
       </c>
-      <c r="D6" s="342"/>
+      <c r="D6" s="316"/>
       <c r="E6" s="241"/>
       <c r="G6" s="268" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="267"/>
-      <c r="I6" s="351">
+      <c r="I6" s="355">
         <f>I4*I5/1000000</f>
         <v>2666.6600960000001</v>
       </c>
-      <c r="J6" s="352"/>
+      <c r="J6" s="356"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="280" t="s">
@@ -4018,28 +4017,28 @@
       <c r="B11" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="318">
+      <c r="C11" s="367">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="D11" s="318"/>
+      <c r="D11" s="367"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="354" t="s">
+      <c r="I11" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="355"/>
+      <c r="J11" s="312"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="353">
+      <c r="C12" s="357">
         <v>0.1</v>
       </c>
-      <c r="D12" s="353"/>
+      <c r="D12" s="357"/>
       <c r="E12" s="5"/>
       <c r="G12" s="268" t="s">
         <v>24</v>
@@ -4126,7 +4125,7 @@
         <f>I10</f>
         <v>0.83736279942407965</v>
       </c>
-      <c r="E16" s="319">
+      <c r="E16" s="368">
         <f>'Asset Model'!D6</f>
         <v>1.9841025456321251</v>
       </c>
@@ -4164,7 +4163,7 @@
         <f>'FCF Model'!F60</f>
         <v>0.94481954217036757</v>
       </c>
-      <c r="E17" s="320"/>
+      <c r="E17" s="369"/>
       <c r="F17" s="300">
         <f>IF(E$16&lt;=0, 1+(-B17/E$16), B17/E$16-1)</f>
         <v>0.13736821094707197</v>
@@ -4198,7 +4197,7 @@
         <f>B18/(Data!C28*I12*Data!C4/Common_Shares)</f>
         <v>0.7452528914874309</v>
       </c>
-      <c r="E18" s="321"/>
+      <c r="E18" s="370"/>
       <c r="F18" s="301">
         <f>IF(E$16&lt;=0, 1+(-B18/E$16), B18/E$16-1)</f>
         <v>-0.1028689500355936</v>
@@ -4243,14 +4242,14 @@
       <c r="B21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="343"/>
-      <c r="D21" s="344"/>
-      <c r="E21" s="344"/>
-      <c r="F21" s="344"/>
-      <c r="G21" s="344"/>
-      <c r="H21" s="344"/>
-      <c r="I21" s="344"/>
-      <c r="J21" s="345"/>
+      <c r="C21" s="350"/>
+      <c r="D21" s="351"/>
+      <c r="E21" s="351"/>
+      <c r="F21" s="351"/>
+      <c r="G21" s="351"/>
+      <c r="H21" s="351"/>
+      <c r="I21" s="351"/>
+      <c r="J21" s="352"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4258,12 +4257,12 @@
       <c r="B22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="356"/>
+      <c r="C22" s="313"/>
       <c r="D22" s="314"/>
       <c r="E22" s="314"/>
       <c r="F22" s="314"/>
-      <c r="G22" s="356"/>
-      <c r="H22" s="356"/>
+      <c r="G22" s="313"/>
+      <c r="H22" s="313"/>
       <c r="I22" s="314"/>
       <c r="J22" s="314"/>
       <c r="K22" s="6"/>
@@ -4273,14 +4272,14 @@
       <c r="B23" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="346"/>
-      <c r="D23" s="342"/>
-      <c r="E23" s="342"/>
-      <c r="F23" s="342"/>
-      <c r="G23" s="346"/>
-      <c r="H23" s="346"/>
-      <c r="I23" s="342"/>
-      <c r="J23" s="342"/>
+      <c r="C23" s="315"/>
+      <c r="D23" s="316"/>
+      <c r="E23" s="316"/>
+      <c r="F23" s="316"/>
+      <c r="G23" s="315"/>
+      <c r="H23" s="315"/>
+      <c r="I23" s="316"/>
+      <c r="J23" s="316"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4316,162 +4315,162 @@
       <c r="B26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="316"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="316"/>
-      <c r="F26" s="317"/>
-      <c r="G26" s="359"/>
-      <c r="H26" s="360"/>
-      <c r="I26" s="371" t="s">
+      <c r="C26" s="347"/>
+      <c r="D26" s="348"/>
+      <c r="E26" s="347"/>
+      <c r="F26" s="348"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="320"/>
+      <c r="I26" s="334" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="371"/>
+      <c r="J26" s="334"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="370">
+      <c r="C27" s="332">
         <f>C31/D25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="323"/>
-      <c r="E27" s="322">
+      <c r="D27" s="333"/>
+      <c r="E27" s="371">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="323"/>
-      <c r="G27" s="361">
+      <c r="F27" s="333"/>
+      <c r="G27" s="321">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="362"/>
-      <c r="I27" s="365">
+      <c r="H27" s="322"/>
+      <c r="I27" s="327">
         <f>C27+E27+G27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="365"/>
+      <c r="J27" s="327"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="313"/>
+      <c r="C28" s="366"/>
       <c r="D28" s="314"/>
-      <c r="E28" s="313"/>
+      <c r="E28" s="366"/>
       <c r="F28" s="314"/>
-      <c r="G28" s="349"/>
-      <c r="H28" s="350"/>
-      <c r="I28" s="333">
+      <c r="G28" s="323"/>
+      <c r="H28" s="324"/>
+      <c r="I28" s="339">
         <f>C28+E28+G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="333"/>
+      <c r="J28" s="339"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="315"/>
+      <c r="C29" s="335"/>
       <c r="D29" s="314"/>
-      <c r="E29" s="315"/>
+      <c r="E29" s="335"/>
       <c r="F29" s="314"/>
-      <c r="G29" s="366"/>
-      <c r="H29" s="367"/>
-      <c r="I29" s="363"/>
-      <c r="J29" s="363"/>
+      <c r="G29" s="328"/>
+      <c r="H29" s="329"/>
+      <c r="I29" s="325"/>
+      <c r="J29" s="325"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="311">
+      <c r="C30" s="337">
         <f>C29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="D30" s="312"/>
-      <c r="E30" s="311">
+      <c r="D30" s="362"/>
+      <c r="E30" s="337">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="312"/>
-      <c r="G30" s="368">
+      <c r="F30" s="362"/>
+      <c r="G30" s="330">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="364"/>
-      <c r="J30" s="364"/>
+      <c r="H30" s="331"/>
+      <c r="I30" s="326"/>
+      <c r="J30" s="326"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="328">
+      <c r="C31" s="363">
         <f>C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="329"/>
-      <c r="E31" s="330">
+      <c r="D31" s="364"/>
+      <c r="E31" s="338">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="331"/>
-      <c r="G31" s="357">
+      <c r="F31" s="365"/>
+      <c r="G31" s="317">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="358"/>
-      <c r="I31" s="330">
+      <c r="H31" s="318"/>
+      <c r="I31" s="338">
         <f>C31+E31+G31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="330"/>
+      <c r="J31" s="338"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="324"/>
-      <c r="D32" s="325"/>
-      <c r="E32" s="332" t="str">
+      <c r="C32" s="358"/>
+      <c r="D32" s="359"/>
+      <c r="E32" s="336" t="str">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>-</v>
       </c>
-      <c r="F32" s="323"/>
+      <c r="F32" s="333"/>
       <c r="G32" s="233"/>
       <c r="H32" s="233"/>
-      <c r="I32" s="332" t="str">
+      <c r="I32" s="336" t="str">
         <f>IF(I31=0,"",I31/I28)</f>
         <v/>
       </c>
-      <c r="J32" s="332"/>
+      <c r="J32" s="336"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="326"/>
-      <c r="D33" s="327"/>
-      <c r="E33" s="311" t="str">
+      <c r="C33" s="360"/>
+      <c r="D33" s="361"/>
+      <c r="E33" s="337" t="str">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>-</v>
       </c>
-      <c r="F33" s="312"/>
+      <c r="F33" s="362"/>
       <c r="G33" s="234"/>
       <c r="H33" s="234"/>
-      <c r="I33" s="311" t="str">
+      <c r="I33" s="337" t="str">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v/>
       </c>
-      <c r="J33" s="311"/>
+      <c r="J33" s="337"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5445,6 +5444,37 @@
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="G22:J22"/>
@@ -5461,37 +5491,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <conditionalFormatting sqref="G16">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
@@ -9928,7 +9927,7 @@
         <v>191</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="333">
+      <c r="D48" s="339">
         <f>Data!C27+D46+D47</f>
         <v>19676</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>139</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="333">
+      <c r="D52" s="339">
         <f>C10+C32</f>
         <v>2198451</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>196</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="333">
+      <c r="D53" s="339">
         <f>((Dashboard!I6*1000)+D48+E43-(C12+C25+C28+C29)-D52)</f>
         <v>260575.0959999999</v>
       </c>
@@ -11060,7 +11059,7 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="334" t="s">
+      <c r="C59" s="340" t="s">
         <v>247</v>
       </c>
       <c r="D59" s="386"/>
@@ -12167,8 +12166,8 @@
   </sheetPr>
   <dimension ref="A2:H99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="144" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="144" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12384,7 +12383,7 @@
         <v>280</v>
       </c>
       <c r="D20" s="195" t="str">
-        <f>_xlfn.CONCAT(D17:D19)</f>
+        <f>D17&amp;D18&amp;D19</f>
         <v>--+</v>
       </c>
       <c r="E20" s="309" t="str">
